--- a/Joins.xlsx
+++ b/Joins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63565bf456f280ee/Desktop/data/03Oct2022MySQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44E196BB-4F98-45AF-8EB1-5A4A16C48CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{44E196BB-4F98-45AF-8EB1-5A4A16C48CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD6F306A-6213-41A7-AFD0-AE4B75E9EA0C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DEC27C10-4BE3-4013-9170-8FD8B30164BC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="37">
   <si>
     <t>TV</t>
   </si>
@@ -125,6 +125,27 @@
   </si>
   <si>
     <t>SELECT * FROM customer c INNER JOIN transaction_table t ON c.custid=t.custid</t>
+  </si>
+  <si>
+    <t>LEFT OUTER JOIN</t>
+  </si>
+  <si>
+    <t>SELECT * FROM customer c LEFT OUTER JOIN transaction_table t ON c.custid=t.custid</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>RIGHT OUTER JOIN</t>
+  </si>
+  <si>
+    <t>SELECT * FROM customer c RIGHT OUTER JOIN transaction_table t ON c.custid=t.custid</t>
+  </si>
+  <si>
+    <t>CROSS JOIN</t>
+  </si>
+  <si>
+    <t>SELECT * FROM customer c CROSS JOIN transaction_table t ;</t>
   </si>
 </sst>
 </file>
@@ -511,15 +532,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCAD9776-50D7-4A25-AC0B-BA4580988E7A}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -987,6 +1010,1945 @@
         <v>70000</v>
       </c>
     </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1001</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="3">
+        <v>4</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="3">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="3">
+        <v>9</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="4">
+        <v>7</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1003</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="5">
+        <v>8</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1004</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1005</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1001</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="3">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="3">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="3">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="3">
+        <v>9</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="4">
+        <v>7</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1003</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="5">
+        <v>8</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1004</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>1100</v>
+      </c>
+      <c r="F53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1001</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="3">
+        <v>4</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="3">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="3">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="1">
+        <v>6</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="4">
+        <v>7</v>
+      </c>
+      <c r="E64" s="4">
+        <v>1003</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="4">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="5">
+        <v>8</v>
+      </c>
+      <c r="E65" s="5">
+        <v>1004</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="5">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="3">
+        <v>9</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>1100</v>
+      </c>
+      <c r="F67" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="2">
+        <v>3</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1001</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="3">
+        <v>4</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="3">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" s="3">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="1">
+        <v>6</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="4">
+        <v>7</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1003</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G74" s="4">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="5">
+        <v>8</v>
+      </c>
+      <c r="E75" s="5">
+        <v>1004</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" s="5">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="3">
+        <v>9</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77">
+        <v>10</v>
+      </c>
+      <c r="E77">
+        <v>1100</v>
+      </c>
+      <c r="F77" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="2">
+        <v>3</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1001</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" s="2">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="3">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="3">
+        <v>5</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G82" s="3">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="1">
+        <v>6</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G83" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="4">
+        <v>7</v>
+      </c>
+      <c r="E84" s="4">
+        <v>1003</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G84" s="4">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="5">
+        <v>8</v>
+      </c>
+      <c r="E85" s="5">
+        <v>1004</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G85" s="5">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="3">
+        <v>9</v>
+      </c>
+      <c r="E86" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87">
+        <v>10</v>
+      </c>
+      <c r="E87">
+        <v>1100</v>
+      </c>
+      <c r="F87" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G89" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="2">
+        <v>3</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1001</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G90" s="2">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="3">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="3">
+        <v>5</v>
+      </c>
+      <c r="E92" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" s="3">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="1">
+        <v>6</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="4">
+        <v>7</v>
+      </c>
+      <c r="E94" s="4">
+        <v>1003</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G94" s="4">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="5">
+        <v>8</v>
+      </c>
+      <c r="E95" s="5">
+        <v>1004</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95" s="5">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="3">
+        <v>9</v>
+      </c>
+      <c r="E96" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97">
+        <v>10</v>
+      </c>
+      <c r="E97">
+        <v>1100</v>
+      </c>
+      <c r="F97" t="s">
+        <v>27</v>
+      </c>
+      <c r="G97">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" s="1">
+        <v>2</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G99" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="2">
+        <v>3</v>
+      </c>
+      <c r="E100" s="2">
+        <v>1001</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G100" s="2">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" s="3">
+        <v>4</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="3">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G102" s="3">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" s="1">
+        <v>6</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" s="4">
+        <v>7</v>
+      </c>
+      <c r="E104" s="4">
+        <v>1003</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G104" s="4">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105" s="5">
+        <v>8</v>
+      </c>
+      <c r="E105" s="5">
+        <v>1004</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105" s="5">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" s="3">
+        <v>9</v>
+      </c>
+      <c r="E106" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G106" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107">
+        <v>1100</v>
+      </c>
+      <c r="F107" t="s">
+        <v>27</v>
+      </c>
+      <c r="G107">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>1005</v>
+      </c>
+      <c r="B108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>1005</v>
+      </c>
+      <c r="B109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="1">
+        <v>2</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G109" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>1005</v>
+      </c>
+      <c r="B110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="2">
+        <v>3</v>
+      </c>
+      <c r="E110" s="2">
+        <v>1001</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G110" s="2">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>1005</v>
+      </c>
+      <c r="B111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="3">
+        <v>4</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G111" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>1005</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="3">
+        <v>5</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112" s="3">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1005</v>
+      </c>
+      <c r="B113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="1">
+        <v>6</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G113" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>1005</v>
+      </c>
+      <c r="B114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="4">
+        <v>7</v>
+      </c>
+      <c r="E114" s="4">
+        <v>1003</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G114" s="4">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>1005</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" s="5">
+        <v>8</v>
+      </c>
+      <c r="E115" s="5">
+        <v>1004</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G115" s="5">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>1005</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="3">
+        <v>9</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G116" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>1005</v>
+      </c>
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117">
+        <v>10</v>
+      </c>
+      <c r="E117">
+        <v>1100</v>
+      </c>
+      <c r="F117" t="s">
+        <v>27</v>
+      </c>
+      <c r="G117">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
